--- a/Results/Complete_Backtest/Weights_iteration/all_weights.xlsx
+++ b/Results/Complete_Backtest/Weights_iteration/all_weights.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+  <si>
+    <t xml:space="preserve">Unnamed: 0</t>
   </si>
   <si>
     <t>BNB</t>
@@ -31,33 +30,45 @@
     <t>ZEC</t>
   </si>
   <si>
+    <t>BTC</t>
+  </si>
+  <si>
+    <t>ETH</t>
+  </si>
+  <si>
+    <t>XRP</t>
+  </si>
+  <si>
     <t>ADA</t>
   </si>
   <si>
+    <t>DOGE</t>
+  </si>
+  <si>
+    <t>TRX</t>
+  </si>
+  <si>
+    <t>LTC</t>
+  </si>
+  <si>
+    <t>BTCH</t>
+  </si>
+  <si>
+    <t>LINK</t>
+  </si>
+  <si>
+    <t>XLM</t>
+  </si>
+  <si>
+    <t>FIL</t>
+  </si>
+  <si>
     <t>MANA</t>
   </si>
   <si>
-    <t>BTC</t>
-  </si>
-  <si>
-    <t>XRP</t>
-  </si>
-  <si>
-    <t>DOGE</t>
-  </si>
-  <si>
-    <t>FIL</t>
-  </si>
-  <si>
-    <t>LTC</t>
-  </si>
-  <si>
     <t>EOS</t>
   </si>
   <si>
-    <t>TRX</t>
-  </si>
-  <si>
     <t>KCS</t>
   </si>
   <si>
@@ -79,6 +90,21 @@
     <t>PropInef_most_4_2022</t>
   </si>
   <si>
+    <t>MVP_index_19_2021</t>
+  </si>
+  <si>
+    <t>maxSR_index_19_2021</t>
+  </si>
+  <si>
+    <t>EW_index_19_2021</t>
+  </si>
+  <si>
+    <t>InvInef_index_19_2021</t>
+  </si>
+  <si>
+    <t>PropInef_index_19_2021</t>
+  </si>
+  <si>
     <t>MVP_most_4_2021</t>
   </si>
   <si>
@@ -137,6 +163,36 @@
   </si>
   <si>
     <t>PropInef_less_4_2020</t>
+  </si>
+  <si>
+    <t>MVP_index_19_2020</t>
+  </si>
+  <si>
+    <t>maxSR_index_19_2020</t>
+  </si>
+  <si>
+    <t>EW_index_19_2020</t>
+  </si>
+  <si>
+    <t>InvInef_index_19_2020</t>
+  </si>
+  <si>
+    <t>PropInef_index_19_2020</t>
+  </si>
+  <si>
+    <t>MVP_index_19_2022</t>
+  </si>
+  <si>
+    <t>maxSR_index_19_2022</t>
+  </si>
+  <si>
+    <t>EW_index_19_2022</t>
+  </si>
+  <si>
+    <t>InvInef_index_19_2022</t>
+  </si>
+  <si>
+    <t>PropInef_index_19_2022</t>
   </si>
   <si>
     <t>MVP_less_4_2022</t>
@@ -157,21 +213,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2">
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
       <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -208,11 +262,11 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -220,11 +274,16 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -270,13 +329,13 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Angsana New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -304,13 +363,13 @@
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Cordia New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -507,15 +566,228 @@
 </a:theme>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle"/>
+        </a:gradFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col customWidth="1" min="2" max="21" width="18.8515625"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -564,53 +836,65 @@
       <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C2">
-        <v>0.275</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="D2">
-        <v>0.1639</v>
+        <v>0.16389999999999999</v>
       </c>
       <c r="E2">
-        <v>0.5496</v>
+        <v>0.54959999999999998</v>
       </c>
       <c r="F2">
         <v>0.0114</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C3">
-        <v>0.3401</v>
+        <v>0.34010000000000001</v>
       </c>
       <c r="D3">
         <v>0.155</v>
       </c>
       <c r="E3">
-        <v>0.4922</v>
+        <v>0.49220000000000003</v>
       </c>
       <c r="F3">
-        <v>0.0127</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.012699999999999999</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C4">
         <v>0.25</v>
@@ -625,547 +909,1525 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C5">
-        <v>0.1728</v>
+        <v>0.17280000000000001</v>
       </c>
       <c r="D5">
         <v>0.2092</v>
       </c>
       <c r="E5">
-        <v>0.4813</v>
+        <v>0.48130000000000001</v>
       </c>
       <c r="F5">
-        <v>0.1367</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.13669999999999999</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C6">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="D6">
-        <v>0.2395</v>
+        <v>0.23949999999999999</v>
       </c>
       <c r="E6">
         <v>0.1041</v>
       </c>
       <c r="F6">
-        <v>0.3665</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.36649999999999999</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="1">
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>25</v>
+      </c>
+      <c r="C7">
+        <v>0.024400000000000002</v>
       </c>
       <c r="D7">
-        <v>0.3836</v>
+        <v>0.017299999999999999</v>
+      </c>
+      <c r="E7">
+        <v>0.023400000000000001</v>
       </c>
       <c r="F7">
-        <v>0.2894</v>
+        <v>0.021100000000000001</v>
       </c>
       <c r="G7">
-        <v>0.1354</v>
+        <v>0.34560000000000002</v>
       </c>
       <c r="H7">
-        <v>0.1915</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.0172</v>
+      </c>
+      <c r="I7">
+        <v>0.015800000000000002</v>
+      </c>
+      <c r="J7">
+        <v>0.010699999999999999</v>
+      </c>
+      <c r="K7">
+        <v>0.1497</v>
+      </c>
+      <c r="L7">
+        <v>0.0149</v>
+      </c>
+      <c r="M7">
+        <v>0.016199999999999999</v>
+      </c>
+      <c r="N7">
+        <v>0.011599999999999999</v>
+      </c>
+      <c r="O7">
+        <v>0.0123</v>
+      </c>
+      <c r="P7">
+        <v>0.0137</v>
+      </c>
+      <c r="Q7">
+        <v>0.0146</v>
+      </c>
+      <c r="R7">
+        <v>0.014500000000000001</v>
+      </c>
+      <c r="S7">
+        <v>0.015900000000000001</v>
+      </c>
+      <c r="T7">
+        <v>0.23519999999999999</v>
+      </c>
+      <c r="U7">
+        <v>0.0258</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="1">
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="C8">
+        <v>0.032000000000000001</v>
       </c>
       <c r="D8">
-        <v>0.3578</v>
+        <v>0.012999999999999999</v>
+      </c>
+      <c r="E8">
+        <v>0.018200000000000001</v>
       </c>
       <c r="F8">
-        <v>0.2332</v>
+        <v>0.0154</v>
       </c>
       <c r="G8">
-        <v>0.2196</v>
+        <v>0.4647</v>
       </c>
       <c r="H8">
-        <v>0.1893</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.0134</v>
+      </c>
+      <c r="I8">
+        <v>0.017000000000000001</v>
+      </c>
+      <c r="J8">
+        <v>0.012999999999999999</v>
+      </c>
+      <c r="K8">
+        <v>0.15179999999999999</v>
+      </c>
+      <c r="L8">
+        <v>0.014200000000000001</v>
+      </c>
+      <c r="M8">
+        <v>0.015100000000000001</v>
+      </c>
+      <c r="N8">
+        <v>0.010999999999999999</v>
+      </c>
+      <c r="O8">
+        <v>0.0129</v>
+      </c>
+      <c r="P8">
+        <v>0.014</v>
+      </c>
+      <c r="Q8">
+        <v>0.0246</v>
+      </c>
+      <c r="R8">
+        <v>0.017500000000000002</v>
+      </c>
+      <c r="S8">
+        <v>0.012999999999999999</v>
+      </c>
+      <c r="T8">
+        <v>0.1119</v>
+      </c>
+      <c r="U8">
+        <v>0.027099999999999999</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="1">
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>27</v>
+      </c>
+      <c r="C9">
+        <v>0.052600000000000001</v>
       </c>
       <c r="D9">
-        <v>0.25</v>
+        <v>0.052600000000000001</v>
+      </c>
+      <c r="E9">
+        <v>0.052600000000000001</v>
       </c>
       <c r="F9">
-        <v>0.25</v>
+        <v>0.052600000000000001</v>
       </c>
       <c r="G9">
-        <v>0.25</v>
+        <v>0.052600000000000001</v>
       </c>
       <c r="H9">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.052600000000000001</v>
+      </c>
+      <c r="I9">
+        <v>0.052600000000000001</v>
+      </c>
+      <c r="J9">
+        <v>0.052600000000000001</v>
+      </c>
+      <c r="K9">
+        <v>0.052600000000000001</v>
+      </c>
+      <c r="L9">
+        <v>0.052600000000000001</v>
+      </c>
+      <c r="M9">
+        <v>0.052600000000000001</v>
+      </c>
+      <c r="N9">
+        <v>0.052600000000000001</v>
+      </c>
+      <c r="O9">
+        <v>0.052600000000000001</v>
+      </c>
+      <c r="P9">
+        <v>0.052600000000000001</v>
+      </c>
+      <c r="Q9">
+        <v>0.052600000000000001</v>
+      </c>
+      <c r="R9">
+        <v>0.052600000000000001</v>
+      </c>
+      <c r="S9">
+        <v>0.052600000000000001</v>
+      </c>
+      <c r="T9">
+        <v>0.052600000000000001</v>
+      </c>
+      <c r="U9">
+        <v>0.052600000000000001</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="1">
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>28</v>
+      </c>
+      <c r="C10">
+        <v>0.049500000000000002</v>
       </c>
       <c r="D10">
-        <v>0.3077</v>
+        <v>0.1651</v>
+      </c>
+      <c r="E10">
+        <v>0.060999999999999999</v>
       </c>
       <c r="F10">
-        <v>0.162</v>
+        <v>0.087300000000000003</v>
       </c>
       <c r="G10">
-        <v>0.1886</v>
+        <v>0.027300000000000001</v>
       </c>
       <c r="H10">
-        <v>0.3417</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.044499999999999998</v>
+      </c>
+      <c r="I10">
+        <v>0.0235</v>
+      </c>
+      <c r="J10">
+        <v>0.089300000000000004</v>
+      </c>
+      <c r="K10">
+        <v>0.018200000000000001</v>
+      </c>
+      <c r="L10">
+        <v>0.039600000000000003</v>
+      </c>
+      <c r="M10">
+        <v>0.050500000000000003</v>
+      </c>
+      <c r="N10">
+        <v>0.057000000000000002</v>
+      </c>
+      <c r="O10">
+        <v>0.031899999999999998</v>
+      </c>
+      <c r="P10">
+        <v>0.0327</v>
+      </c>
+      <c r="Q10">
+        <v>0.02</v>
+      </c>
+      <c r="R10">
+        <v>0.065600000000000006</v>
+      </c>
+      <c r="S10">
+        <v>0.048800000000000003</v>
+      </c>
+      <c r="T10">
+        <v>0.037600000000000001</v>
+      </c>
+      <c r="U10">
+        <v>0.050799999999999998</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="1">
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>29</v>
+      </c>
+      <c r="C11">
+        <v>0.042200000000000001</v>
       </c>
       <c r="D11">
-        <v>0.1842</v>
+        <v>0.012699999999999999</v>
+      </c>
+      <c r="E11">
+        <v>0.034299999999999997</v>
       </c>
       <c r="F11">
-        <v>0.3496</v>
+        <v>0.023900000000000001</v>
       </c>
       <c r="G11">
-        <v>0.3004</v>
+        <v>0.076499999999999999</v>
       </c>
       <c r="H11">
-        <v>0.1658</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.046899999999999997</v>
+      </c>
+      <c r="I11">
+        <v>0.088999999999999996</v>
+      </c>
+      <c r="J11">
+        <v>0.023400000000000001</v>
+      </c>
+      <c r="K11">
+        <v>0.11509999999999999</v>
+      </c>
+      <c r="L11">
+        <v>0.0528</v>
+      </c>
+      <c r="M11">
+        <v>0.041300000000000003</v>
+      </c>
+      <c r="N11">
+        <v>0.036600000000000001</v>
+      </c>
+      <c r="O11">
+        <v>0.065500000000000003</v>
+      </c>
+      <c r="P11">
+        <v>0.063899999999999998</v>
+      </c>
+      <c r="Q11">
+        <v>0.1045</v>
+      </c>
+      <c r="R11">
+        <v>0.031800000000000002</v>
+      </c>
+      <c r="S11">
+        <v>0.042799999999999998</v>
+      </c>
+      <c r="T11">
+        <v>0.055500000000000001</v>
+      </c>
+      <c r="U11">
+        <v>0.041099999999999998</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="1">
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12">
-        <v>0.6278</v>
+        <v>30</v>
+      </c>
+      <c r="D12">
+        <v>0.3836</v>
+      </c>
+      <c r="F12">
+        <v>0.28939999999999999</v>
       </c>
       <c r="J12">
-        <v>0.0175</v>
-      </c>
-      <c r="K12">
-        <v>0.3187</v>
-      </c>
-      <c r="L12">
-        <v>0.036</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.13539999999999999</v>
+      </c>
+      <c r="R12">
+        <v>0.1915</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="1">
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
-      </c>
-      <c r="I13">
-        <v>0.6701</v>
+        <v>31</v>
+      </c>
+      <c r="D13">
+        <v>0.35780000000000001</v>
+      </c>
+      <c r="F13">
+        <v>0.23319999999999999</v>
       </c>
       <c r="J13">
-        <v>0.0147</v>
-      </c>
-      <c r="K13">
-        <v>0.2763</v>
-      </c>
-      <c r="L13">
-        <v>0.039</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.21959999999999999</v>
+      </c>
+      <c r="R13">
+        <v>0.1893</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="1">
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
-      </c>
-      <c r="I14">
+        <v>32</v>
+      </c>
+      <c r="D14">
+        <v>0.25</v>
+      </c>
+      <c r="F14">
         <v>0.25</v>
       </c>
       <c r="J14">
         <v>0.25</v>
       </c>
-      <c r="K14">
+      <c r="R14">
         <v>0.25</v>
       </c>
-      <c r="L14">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+    </row>
+    <row r="15">
       <c r="A15" s="1">
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I15">
-        <v>0.1886</v>
+        <v>33</v>
+      </c>
+      <c r="D15">
+        <v>0.30769999999999997</v>
+      </c>
+      <c r="F15">
+        <v>0.16200000000000001</v>
       </c>
       <c r="J15">
-        <v>0.3077</v>
-      </c>
-      <c r="K15">
+        <v>0.18859999999999999</v>
+      </c>
+      <c r="R15">
         <v>0.3417</v>
       </c>
-      <c r="L15">
-        <v>0.162</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+    </row>
+    <row r="16">
       <c r="A16" s="1">
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
-      </c>
-      <c r="I16">
+        <v>34</v>
+      </c>
+      <c r="D16">
+        <v>0.1842</v>
+      </c>
+      <c r="F16">
+        <v>0.34960000000000002</v>
+      </c>
+      <c r="J16">
         <v>0.3004</v>
       </c>
-      <c r="J16">
-        <v>0.1842</v>
-      </c>
-      <c r="K16">
+      <c r="R16">
         <v>0.1658</v>
       </c>
-      <c r="L16">
-        <v>0.3496</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+    </row>
+    <row r="17">
       <c r="A17" s="1">
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G17">
-        <v>0.1815</v>
-      </c>
-      <c r="L17">
-        <v>0.1326</v>
-      </c>
-      <c r="M17">
-        <v>0.6713</v>
-      </c>
-      <c r="N17">
-        <v>0.0146</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.62780000000000002</v>
+      </c>
+      <c r="I17">
+        <v>0.017500000000000002</v>
+      </c>
+      <c r="K17">
+        <v>0.31869999999999998</v>
+      </c>
+      <c r="Q17">
+        <v>0.035999999999999997</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="1">
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G18">
-        <v>0.1019</v>
-      </c>
-      <c r="L18">
-        <v>0.137</v>
-      </c>
-      <c r="M18">
-        <v>0.7385</v>
-      </c>
-      <c r="N18">
-        <v>0.0226</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.67010000000000003</v>
+      </c>
+      <c r="I18">
+        <v>0.0147</v>
+      </c>
+      <c r="K18">
+        <v>0.27629999999999999</v>
+      </c>
+      <c r="Q18">
+        <v>0.039</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="1">
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G19">
         <v>0.25</v>
       </c>
-      <c r="L19">
+      <c r="I19">
         <v>0.25</v>
       </c>
-      <c r="M19">
+      <c r="K19">
         <v>0.25</v>
       </c>
-      <c r="N19">
+      <c r="Q19">
         <v>0.25</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20">
       <c r="A20" s="1">
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G20">
-        <v>0.1886</v>
-      </c>
-      <c r="L20">
-        <v>0.1985</v>
-      </c>
-      <c r="M20">
-        <v>0.3684</v>
-      </c>
-      <c r="N20">
-        <v>0.2445</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.18859999999999999</v>
+      </c>
+      <c r="I20">
+        <v>0.30769999999999997</v>
+      </c>
+      <c r="K20">
+        <v>0.3417</v>
+      </c>
+      <c r="Q20">
+        <v>0.16200000000000001</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="1">
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G21">
-        <v>0.3092</v>
-      </c>
-      <c r="L21">
-        <v>0.2939</v>
-      </c>
-      <c r="M21">
-        <v>0.1583</v>
-      </c>
-      <c r="N21">
-        <v>0.2386</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.3004</v>
+      </c>
+      <c r="I21">
+        <v>0.1842</v>
+      </c>
+      <c r="K21">
+        <v>0.1658</v>
+      </c>
+      <c r="Q21">
+        <v>0.34960000000000002</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="1">
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22">
-        <v>0.0419</v>
-      </c>
-      <c r="I22">
-        <v>0.9321</v>
-      </c>
-      <c r="O22">
-        <v>0.0123</v>
-      </c>
-      <c r="P22">
-        <v>0.0137</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>40</v>
+      </c>
+      <c r="J22">
+        <v>0.18149999999999999</v>
+      </c>
+      <c r="M22">
+        <v>0.67130000000000001</v>
+      </c>
+      <c r="Q22">
+        <v>0.1326</v>
+      </c>
+      <c r="S22">
+        <v>0.0146</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="1">
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23">
-        <v>0.07099999999999999</v>
-      </c>
-      <c r="I23">
-        <v>0.9073</v>
-      </c>
-      <c r="O23">
-        <v>0.011</v>
-      </c>
-      <c r="P23">
-        <v>0.0108</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>41</v>
+      </c>
+      <c r="J23">
+        <v>0.1019</v>
+      </c>
+      <c r="M23">
+        <v>0.73850000000000005</v>
+      </c>
+      <c r="Q23">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="S23">
+        <v>0.022599999999999999</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="1">
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24">
+        <v>42</v>
+      </c>
+      <c r="J24">
         <v>0.25</v>
       </c>
-      <c r="I24">
+      <c r="M24">
         <v>0.25</v>
       </c>
-      <c r="O24">
+      <c r="Q24">
         <v>0.25</v>
       </c>
-      <c r="P24">
+      <c r="S24">
         <v>0.25</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25">
       <c r="A25" s="1">
         <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25">
-        <v>0.3684</v>
-      </c>
-      <c r="I25">
-        <v>0.1886</v>
-      </c>
-      <c r="O25">
-        <v>0.1985</v>
-      </c>
-      <c r="P25">
+        <v>43</v>
+      </c>
+      <c r="J25">
+        <v>0.18859999999999999</v>
+      </c>
+      <c r="M25">
+        <v>0.36840000000000001</v>
+      </c>
+      <c r="Q25">
+        <v>0.19850000000000001</v>
+      </c>
+      <c r="S25">
         <v>0.2445</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26">
       <c r="A26" s="1">
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26">
+        <v>44</v>
+      </c>
+      <c r="J26">
+        <v>0.30919999999999997</v>
+      </c>
+      <c r="M26">
         <v>0.1583</v>
       </c>
-      <c r="I26">
-        <v>0.3092</v>
-      </c>
-      <c r="O26">
-        <v>0.2939</v>
-      </c>
-      <c r="P26">
-        <v>0.2386</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
+      <c r="Q26">
+        <v>0.29389999999999999</v>
+      </c>
+      <c r="S26">
+        <v>0.23860000000000001</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="1">
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
-      </c>
-      <c r="H27">
-        <v>0.1418</v>
-      </c>
-      <c r="J27">
-        <v>0.3277</v>
-      </c>
-      <c r="K27">
-        <v>0.1572</v>
-      </c>
-      <c r="Q27">
-        <v>0.3732</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
+        <v>45</v>
+      </c>
+      <c r="C27">
+        <v>0.0419</v>
+      </c>
+      <c r="G27">
+        <v>0.93210000000000004</v>
+      </c>
+      <c r="L27">
+        <v>0.0123</v>
+      </c>
+      <c r="T27">
+        <v>0.0137</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="1">
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
-      </c>
-      <c r="H28">
-        <v>0.1757</v>
-      </c>
-      <c r="J28">
-        <v>0.2813</v>
-      </c>
-      <c r="K28">
-        <v>0.1721</v>
-      </c>
-      <c r="Q28">
-        <v>0.3709</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
+        <v>46</v>
+      </c>
+      <c r="C28">
+        <v>0.070999999999999994</v>
+      </c>
+      <c r="G28">
+        <v>0.9073</v>
+      </c>
+      <c r="L28">
+        <v>0.010999999999999999</v>
+      </c>
+      <c r="T28">
+        <v>0.010800000000000001</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="1">
         <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
-      </c>
-      <c r="H29">
+        <v>47</v>
+      </c>
+      <c r="C29">
         <v>0.25</v>
       </c>
-      <c r="J29">
+      <c r="G29">
         <v>0.25</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>0.25</v>
       </c>
-      <c r="Q29">
+      <c r="T29">
         <v>0.25</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30">
       <c r="A30" s="1">
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
-      </c>
-      <c r="H30">
-        <v>0.4813</v>
-      </c>
-      <c r="J30">
-        <v>0.1728</v>
-      </c>
-      <c r="K30">
-        <v>0.2092</v>
-      </c>
-      <c r="Q30">
-        <v>0.1367</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
+        <v>48</v>
+      </c>
+      <c r="C30">
+        <v>0.36840000000000001</v>
+      </c>
+      <c r="G30">
+        <v>0.18859999999999999</v>
+      </c>
+      <c r="L30">
+        <v>0.19850000000000001</v>
+      </c>
+      <c r="T30">
+        <v>0.2445</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="1">
         <v>4</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
-      </c>
-      <c r="H31">
+        <v>49</v>
+      </c>
+      <c r="C31">
+        <v>0.1583</v>
+      </c>
+      <c r="G31">
+        <v>0.30919999999999997</v>
+      </c>
+      <c r="L31">
+        <v>0.29389999999999999</v>
+      </c>
+      <c r="T31">
+        <v>0.23860000000000001</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1">
+        <v>0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32">
+        <v>0.027199999999999998</v>
+      </c>
+      <c r="D32">
+        <v>0.0146</v>
+      </c>
+      <c r="E32">
+        <v>0.0114</v>
+      </c>
+      <c r="F32">
+        <v>0.0135</v>
+      </c>
+      <c r="G32">
+        <v>0.7339</v>
+      </c>
+      <c r="H32">
+        <v>0.013899999999999999</v>
+      </c>
+      <c r="I32">
+        <v>0.023699999999999999</v>
+      </c>
+      <c r="J32">
+        <v>0.010999999999999999</v>
+      </c>
+      <c r="K32">
+        <v>0.0247</v>
+      </c>
+      <c r="L32">
+        <v>0.012</v>
+      </c>
+      <c r="M32">
+        <v>0.0117</v>
+      </c>
+      <c r="N32">
+        <v>0.0114</v>
+      </c>
+      <c r="O32">
+        <v>0.0115</v>
+      </c>
+      <c r="P32">
+        <v>0.0147</v>
+      </c>
+      <c r="Q32">
+        <v>0.0155</v>
+      </c>
+      <c r="R32">
+        <v>0.012999999999999999</v>
+      </c>
+      <c r="S32">
+        <v>0.0103</v>
+      </c>
+      <c r="T32">
+        <v>0.013299999999999999</v>
+      </c>
+      <c r="U32">
+        <v>0.0126</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33">
+        <v>0.045999999999999999</v>
+      </c>
+      <c r="D33">
+        <v>0.012</v>
+      </c>
+      <c r="E33">
+        <v>0.012699999999999999</v>
+      </c>
+      <c r="F33">
+        <v>0.017000000000000001</v>
+      </c>
+      <c r="G33">
+        <v>0.71579999999999999</v>
+      </c>
+      <c r="H33">
+        <v>0.0121</v>
+      </c>
+      <c r="I33">
+        <v>0.0123</v>
+      </c>
+      <c r="J33">
+        <v>0.010200000000000001</v>
+      </c>
+      <c r="K33">
+        <v>0.0246</v>
+      </c>
+      <c r="L33">
+        <v>0.0114</v>
+      </c>
+      <c r="M33">
+        <v>0.0167</v>
+      </c>
+      <c r="N33">
+        <v>0.010699999999999999</v>
+      </c>
+      <c r="O33">
+        <v>0.017000000000000001</v>
+      </c>
+      <c r="P33">
+        <v>0.0149</v>
+      </c>
+      <c r="Q33">
+        <v>0.014999999999999999</v>
+      </c>
+      <c r="R33">
+        <v>0.013100000000000001</v>
+      </c>
+      <c r="S33">
+        <v>0.010999999999999999</v>
+      </c>
+      <c r="T33">
+        <v>0.0109</v>
+      </c>
+      <c r="U33">
+        <v>0.016899999999999998</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1">
+        <v>2</v>
+      </c>
+      <c r="B34" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34">
+        <v>0.052600000000000001</v>
+      </c>
+      <c r="D34">
+        <v>0.052600000000000001</v>
+      </c>
+      <c r="E34">
+        <v>0.052600000000000001</v>
+      </c>
+      <c r="F34">
+        <v>0.052600000000000001</v>
+      </c>
+      <c r="G34">
+        <v>0.052600000000000001</v>
+      </c>
+      <c r="H34">
+        <v>0.052600000000000001</v>
+      </c>
+      <c r="I34">
+        <v>0.052600000000000001</v>
+      </c>
+      <c r="J34">
+        <v>0.052600000000000001</v>
+      </c>
+      <c r="K34">
+        <v>0.052600000000000001</v>
+      </c>
+      <c r="L34">
+        <v>0.052600000000000001</v>
+      </c>
+      <c r="M34">
+        <v>0.052600000000000001</v>
+      </c>
+      <c r="N34">
+        <v>0.052600000000000001</v>
+      </c>
+      <c r="O34">
+        <v>0.052600000000000001</v>
+      </c>
+      <c r="P34">
+        <v>0.052600000000000001</v>
+      </c>
+      <c r="Q34">
+        <v>0.052600000000000001</v>
+      </c>
+      <c r="R34">
+        <v>0.052600000000000001</v>
+      </c>
+      <c r="S34">
+        <v>0.052600000000000001</v>
+      </c>
+      <c r="T34">
+        <v>0.052600000000000001</v>
+      </c>
+      <c r="U34">
+        <v>0.052600000000000001</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1">
+        <v>3</v>
+      </c>
+      <c r="B35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35">
+        <v>0.029000000000000001</v>
+      </c>
+      <c r="D35">
+        <v>0.039600000000000003</v>
+      </c>
+      <c r="E35">
+        <v>0.050599999999999999</v>
+      </c>
+      <c r="F35">
+        <v>0.050900000000000001</v>
+      </c>
+      <c r="G35">
+        <v>0.0276</v>
+      </c>
+      <c r="H35">
+        <v>0.053800000000000001</v>
+      </c>
+      <c r="I35">
+        <v>0.035700000000000003</v>
+      </c>
+      <c r="J35">
+        <v>0.13739999999999999</v>
+      </c>
+      <c r="K35">
+        <v>0.0315</v>
+      </c>
+      <c r="L35">
+        <v>0.027099999999999999</v>
+      </c>
+      <c r="M35">
+        <v>0.057099999999999998</v>
+      </c>
+      <c r="N35">
+        <v>0.053199999999999997</v>
+      </c>
+      <c r="O35">
+        <v>0.0385</v>
+      </c>
+      <c r="P35">
+        <v>0.045900000000000003</v>
+      </c>
+      <c r="Q35">
+        <v>0.1263</v>
+      </c>
+      <c r="R35">
+        <v>0.049099999999999998</v>
+      </c>
+      <c r="S35">
+        <v>0.068099999999999994</v>
+      </c>
+      <c r="T35">
+        <v>0.026499999999999999</v>
+      </c>
+      <c r="U35">
+        <v>0.052299999999999999</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1">
+        <v>4</v>
+      </c>
+      <c r="B36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36">
+        <v>0.078</v>
+      </c>
+      <c r="D36">
+        <v>0.057200000000000001</v>
+      </c>
+      <c r="E36">
+        <v>0.044699999999999997</v>
+      </c>
+      <c r="F36">
+        <v>0.044400000000000002</v>
+      </c>
+      <c r="G36">
+        <v>0.082100000000000006</v>
+      </c>
+      <c r="H36">
+        <v>0.042000000000000003</v>
+      </c>
+      <c r="I36">
+        <v>0.063399999999999998</v>
+      </c>
+      <c r="J36">
+        <v>0.016500000000000001</v>
+      </c>
+      <c r="K36">
+        <v>0.071800000000000003</v>
+      </c>
+      <c r="L36">
+        <v>0.083599999999999994</v>
+      </c>
+      <c r="M36">
+        <v>0.039699999999999999</v>
+      </c>
+      <c r="N36">
+        <v>0.042500000000000003</v>
+      </c>
+      <c r="O36">
+        <v>0.058799999999999998</v>
+      </c>
+      <c r="P36">
+        <v>0.049299999999999997</v>
+      </c>
+      <c r="Q36">
+        <v>0.017899999999999999</v>
+      </c>
+      <c r="R36">
+        <v>0.045999999999999999</v>
+      </c>
+      <c r="S36">
+        <v>0.0332</v>
+      </c>
+      <c r="T36">
+        <v>0.085500000000000007</v>
+      </c>
+      <c r="U36">
+        <v>0.043200000000000002</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1">
+        <v>0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37">
+        <v>0.013100000000000001</v>
+      </c>
+      <c r="D37">
+        <v>0.015299999999999999</v>
+      </c>
+      <c r="E37">
+        <v>0.016199999999999999</v>
+      </c>
+      <c r="F37">
+        <v>0.0114</v>
+      </c>
+      <c r="G37">
+        <v>0.72619999999999996</v>
+      </c>
+      <c r="H37">
+        <v>0.014500000000000001</v>
+      </c>
+      <c r="I37">
+        <v>0.0112</v>
+      </c>
+      <c r="J37">
+        <v>0.012699999999999999</v>
+      </c>
+      <c r="K37">
+        <v>0.0121</v>
+      </c>
+      <c r="L37">
+        <v>0.014800000000000001</v>
+      </c>
+      <c r="M37">
+        <v>0.013100000000000001</v>
+      </c>
+      <c r="N37">
+        <v>0.0115</v>
+      </c>
+      <c r="O37">
+        <v>0.0143</v>
+      </c>
+      <c r="P37">
+        <v>0.0183</v>
+      </c>
+      <c r="Q37">
+        <v>0.020799999999999999</v>
+      </c>
+      <c r="R37">
+        <v>0.013100000000000001</v>
+      </c>
+      <c r="S37">
+        <v>0.010800000000000001</v>
+      </c>
+      <c r="T37">
+        <v>0.033099999999999997</v>
+      </c>
+      <c r="U37">
+        <v>0.017399999999999999</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38">
+        <v>0.018200000000000001</v>
+      </c>
+      <c r="D38">
+        <v>0.0123</v>
+      </c>
+      <c r="E38">
+        <v>0.0138</v>
+      </c>
+      <c r="F38">
+        <v>0.011900000000000001</v>
+      </c>
+      <c r="G38">
+        <v>0.74209999999999998</v>
+      </c>
+      <c r="H38">
+        <v>0.016400000000000001</v>
+      </c>
+      <c r="I38">
+        <v>0.0223</v>
+      </c>
+      <c r="J38">
+        <v>0.0124</v>
+      </c>
+      <c r="K38">
+        <v>0.013899999999999999</v>
+      </c>
+      <c r="L38">
+        <v>0.0147</v>
+      </c>
+      <c r="M38">
+        <v>0.0112</v>
+      </c>
+      <c r="N38">
+        <v>0.0117</v>
+      </c>
+      <c r="O38">
+        <v>0.012500000000000001</v>
+      </c>
+      <c r="P38">
+        <v>0.0117</v>
+      </c>
+      <c r="Q38">
+        <v>0.014999999999999999</v>
+      </c>
+      <c r="R38">
+        <v>0.0115</v>
+      </c>
+      <c r="S38">
+        <v>0.011599999999999999</v>
+      </c>
+      <c r="T38">
+        <v>0.019099999999999999</v>
+      </c>
+      <c r="U38">
+        <v>0.0177</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1">
+        <v>2</v>
+      </c>
+      <c r="B39" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39">
+        <v>0.052600000000000001</v>
+      </c>
+      <c r="D39">
+        <v>0.052600000000000001</v>
+      </c>
+      <c r="E39">
+        <v>0.052600000000000001</v>
+      </c>
+      <c r="F39">
+        <v>0.052600000000000001</v>
+      </c>
+      <c r="G39">
+        <v>0.052600000000000001</v>
+      </c>
+      <c r="H39">
+        <v>0.052600000000000001</v>
+      </c>
+      <c r="I39">
+        <v>0.052600000000000001</v>
+      </c>
+      <c r="J39">
+        <v>0.052600000000000001</v>
+      </c>
+      <c r="K39">
+        <v>0.052600000000000001</v>
+      </c>
+      <c r="L39">
+        <v>0.052600000000000001</v>
+      </c>
+      <c r="M39">
+        <v>0.052600000000000001</v>
+      </c>
+      <c r="N39">
+        <v>0.052600000000000001</v>
+      </c>
+      <c r="O39">
+        <v>0.052600000000000001</v>
+      </c>
+      <c r="P39">
+        <v>0.052600000000000001</v>
+      </c>
+      <c r="Q39">
+        <v>0.052600000000000001</v>
+      </c>
+      <c r="R39">
+        <v>0.052600000000000001</v>
+      </c>
+      <c r="S39">
+        <v>0.052600000000000001</v>
+      </c>
+      <c r="T39">
+        <v>0.052600000000000001</v>
+      </c>
+      <c r="U39">
+        <v>0.052600000000000001</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1">
+        <v>3</v>
+      </c>
+      <c r="B40" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40">
+        <v>0.12180000000000001</v>
+      </c>
+      <c r="D40">
+        <v>0.073800000000000004</v>
+      </c>
+      <c r="E40">
+        <v>0.084699999999999998</v>
+      </c>
+      <c r="F40">
+        <v>0.073200000000000001</v>
+      </c>
+      <c r="G40">
+        <v>0.043700000000000003</v>
+      </c>
+      <c r="H40">
+        <v>0.052900000000000003</v>
+      </c>
+      <c r="I40">
+        <v>0.034599999999999999</v>
+      </c>
+      <c r="J40">
+        <v>0.050200000000000002</v>
+      </c>
+      <c r="K40">
+        <v>0.021600000000000001</v>
+      </c>
+      <c r="L40">
+        <v>0.054100000000000002</v>
+      </c>
+      <c r="M40">
+        <v>0.050700000000000002</v>
+      </c>
+      <c r="N40">
+        <v>0.065000000000000002</v>
+      </c>
+      <c r="O40">
+        <v>0.051700000000000003</v>
+      </c>
+      <c r="P40">
+        <v>0.038399999999999997</v>
+      </c>
+      <c r="Q40">
+        <v>0.036299999999999999</v>
+      </c>
+      <c r="R40">
+        <v>0.030599999999999999</v>
+      </c>
+      <c r="S40">
+        <v>0.047199999999999999</v>
+      </c>
+      <c r="T40">
+        <v>0.0361</v>
+      </c>
+      <c r="U40">
+        <v>0.033300000000000003</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1">
+        <v>4</v>
+      </c>
+      <c r="B41" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41">
+        <v>0.019400000000000001</v>
+      </c>
+      <c r="D41">
+        <v>0.032099999999999997</v>
+      </c>
+      <c r="E41">
+        <v>0.028000000000000001</v>
+      </c>
+      <c r="F41">
+        <v>0.032399999999999998</v>
+      </c>
+      <c r="G41">
+        <v>0.054199999999999998</v>
+      </c>
+      <c r="H41">
+        <v>0.044699999999999997</v>
+      </c>
+      <c r="I41">
+        <v>0.068500000000000005</v>
+      </c>
+      <c r="J41">
+        <v>0.047199999999999999</v>
+      </c>
+      <c r="K41">
+        <v>0.1095</v>
+      </c>
+      <c r="L41">
+        <v>0.043799999999999999</v>
+      </c>
+      <c r="M41">
+        <v>0.046699999999999998</v>
+      </c>
+      <c r="N41">
+        <v>0.036400000000000002</v>
+      </c>
+      <c r="O41">
+        <v>0.0458</v>
+      </c>
+      <c r="P41">
+        <v>0.061600000000000002</v>
+      </c>
+      <c r="Q41">
+        <v>0.065299999999999997</v>
+      </c>
+      <c r="R41">
+        <v>0.077499999999999999</v>
+      </c>
+      <c r="S41">
+        <v>0.050200000000000002</v>
+      </c>
+      <c r="T41">
+        <v>0.065699999999999995</v>
+      </c>
+      <c r="U41">
+        <v>0.071099999999999997</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1">
+        <v>0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>60</v>
+      </c>
+      <c r="I42">
+        <v>0.32769999999999999</v>
+      </c>
+      <c r="K42">
+        <v>0.15720000000000001</v>
+      </c>
+      <c r="R42">
+        <v>0.14180000000000001</v>
+      </c>
+      <c r="U42">
+        <v>0.37319999999999998</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1">
+        <v>1</v>
+      </c>
+      <c r="B43" t="s">
+        <v>61</v>
+      </c>
+      <c r="I43">
+        <v>0.28129999999999999</v>
+      </c>
+      <c r="K43">
+        <v>0.1721</v>
+      </c>
+      <c r="R43">
+        <v>0.1757</v>
+      </c>
+      <c r="U43">
+        <v>0.37090000000000001</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1">
+        <v>2</v>
+      </c>
+      <c r="B44" t="s">
+        <v>62</v>
+      </c>
+      <c r="I44">
+        <v>0.25</v>
+      </c>
+      <c r="K44">
+        <v>0.25</v>
+      </c>
+      <c r="R44">
+        <v>0.25</v>
+      </c>
+      <c r="U44">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1">
+        <v>3</v>
+      </c>
+      <c r="B45" t="s">
+        <v>63</v>
+      </c>
+      <c r="I45">
+        <v>0.17280000000000001</v>
+      </c>
+      <c r="K45">
+        <v>0.2092</v>
+      </c>
+      <c r="R45">
+        <v>0.48130000000000001</v>
+      </c>
+      <c r="U45">
+        <v>0.13669999999999999</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1">
+        <v>4</v>
+      </c>
+      <c r="B46" t="s">
+        <v>64</v>
+      </c>
+      <c r="I46">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="K46">
+        <v>0.23949999999999999</v>
+      </c>
+      <c r="R46">
         <v>0.1041</v>
       </c>
-      <c r="J31">
-        <v>0.29</v>
-      </c>
-      <c r="K31">
-        <v>0.2395</v>
-      </c>
-      <c r="Q31">
-        <v>0.3665</v>
+      <c r="U46">
+        <v>0.36649999999999999</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>